--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.6534</v>
+        <v>-11.4974</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.934099999999995</v>
+        <v>4.737599999999993</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.26150000000002</v>
+        <v>-22.40650000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.8121</v>
+        <v>-21.73999999999998</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.53799999999999</v>
+        <v>16.52979999999999</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.54350000000001</v>
+        <v>-21.56470000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.6621</v>
+        <v>17.95220000000002</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.45240000000001</v>
+        <v>16.4509</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.80980000000001</v>
+        <v>16.8527</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.744299999999996</v>
+        <v>4.692099999999994</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.81139999999999</v>
+        <v>-21.80629999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>5.8722</v>
+        <v>6.314400000000003</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.0251</v>
+        <v>-12.267</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.62180000000001</v>
+        <v>-11.44100000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.156499999999996</v>
+        <v>9.289400000000002</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.2918</v>
+        <v>-13.25089999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.274900000000003</v>
+        <v>5.149800000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.12760000000002</v>
+        <v>17.32650000000001</v>
       </c>
     </row>
     <row r="30">
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.654300000000001</v>
+        <v>4.510500000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.7809</v>
+        <v>4.987399999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.3</v>
+        <v>-13.33159999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.71169999999999</v>
+        <v>16.75849999999998</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.92350000000001</v>
+        <v>16.22530000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.91679999999999</v>
+        <v>-19.71189999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.3915</v>
+        <v>-13.1849</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.236399999999991</v>
+        <v>9.442799999999993</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.15580000000001</v>
+        <v>-12.03190000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.29970000000001</v>
+        <v>17.18430000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-14.11179999999999</v>
+        <v>-14.00869999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.6124</v>
+        <v>-12.4626</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.46400000000002</v>
+        <v>17.33510000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>15.4887</v>
+        <v>15.6477</v>
       </c>
     </row>
     <row r="50">
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.4835</v>
+        <v>5.26</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.22239999999999</v>
+        <v>16.33929999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.0299</v>
+        <v>-21.7392</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.74460000000001</v>
+        <v>16.3984</v>
       </c>
     </row>
     <row r="57">
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-11.54659999999999</v>
+        <v>-11.67429999999998</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.1376</v>
+        <v>-12.22879999999999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.44800000000001</v>
+        <v>-21.4683</v>
       </c>
       <c r="B68" t="n">
-        <v>4.477799999999998</v>
+        <v>4.566799999999995</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.36070000000003</v>
+        <v>17.33040000000003</v>
       </c>
     </row>
     <row r="70">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.5467</v>
+        <v>-12.34990000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.264199999999995</v>
+        <v>6.396699999999997</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.18699999999998</v>
+        <v>-20.11029999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.03989999999997</v>
+        <v>-20.14999999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.12490000000001</v>
+        <v>-22.10680000000002</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.754</v>
+        <v>16.81809999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.86019999999999</v>
+        <v>-21.6882</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.989999999999997</v>
+        <v>4.524699999999993</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.906399999999999</v>
+        <v>4.647399999999997</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.07250000000001</v>
+        <v>-13.0003</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.18170000000001</v>
+        <v>18.22600000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-9.959000000000003</v>
+        <v>-10.0169</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.8947</v>
+        <v>-12.5011</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.306300000000005</v>
+        <v>5.175900000000007</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.4903</v>
+        <v>7.407299999999998</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.21619999999999</v>
+        <v>9.4413</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.09640000000001</v>
+        <v>-12.7327</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.702100000000007</v>
+        <v>8.665000000000006</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
